--- a/blanco-meta/rest/SampleLogout.xlsx
+++ b/blanco-meta/rest/SampleLogout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10609"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yuji/projects/dapanda/dapanda-api-core/blanco-meta/rest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tueda/data/webstorm/dapanda/dapanda-api-core/blanco-meta/rest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDED3727-F582-964F-955A-841CD52203B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16C6B12-9D81-934E-87B3-88A7AB990247}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="641" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="641" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="process" sheetId="19" r:id="rId1"/>
@@ -2192,18 +2192,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>javax.validation.constraints.Size</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>javax.validation.constraints.NotBlank</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>javax.validation.constraints.Pattern</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>blanco.restgenerator.valueobject.RequestHeader</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2238,6 +2226,18 @@
   </si>
   <si>
     <t>dapanda.api.sample</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jakarta.validation.constraints.Size</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jakarta.validation.constraints.NotBlank</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>jakarta.validation.constraints.Pattern</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -3238,7 +3238,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="218">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3272,7 +3272,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3289,7 +3288,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3306,9 +3304,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3317,12 +3312,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3382,7 +3373,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3411,7 +3402,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3461,12 +3451,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3486,7 +3476,6 @@
     <xf numFmtId="0" fontId="3" fillId="12" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3502,21 +3491,138 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="61" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3526,172 +3632,61 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="45" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="60" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="63" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3704,13 +3699,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="66" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3804,7 +3792,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="telegramConfig"/>
@@ -4152,7 +4140,7 @@
   </sheetPr>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -4176,7 +4164,7 @@
     <col min="16" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
+    <row r="1" spans="1:6" ht="19">
       <c r="A1" s="18" t="s">
         <v>18</v>
       </c>
@@ -4185,208 +4173,184 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="182" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="137" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="92"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="190" t="s">
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="141" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="186" t="s">
-        <v>182</v>
-      </c>
-      <c r="E6" s="186"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="92"/>
-    </row>
-    <row r="7" spans="1:8" ht="32.25" customHeight="1">
-      <c r="A7" s="193" t="s">
+      <c r="B6" s="142"/>
+      <c r="C6" s="143"/>
+      <c r="D6" s="138" t="s">
+        <v>179</v>
+      </c>
+      <c r="E6" s="138"/>
+    </row>
+    <row r="7" spans="1:6" ht="32.25" customHeight="1">
+      <c r="A7" s="144" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="188" t="s">
+      <c r="B7" s="144"/>
+      <c r="C7" s="144"/>
+      <c r="D7" s="139" t="s">
+        <v>177</v>
+      </c>
+      <c r="E7" s="140"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="137"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="138" t="s">
         <v>180</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="92"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="182" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="182"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="186" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="186"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="182" t="s">
+      <c r="E8" s="138"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="182"/>
-      <c r="C9" s="182"/>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="182" t="s">
+      <c r="B9" s="137"/>
+      <c r="C9" s="137"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="182"/>
-      <c r="C10" s="182"/>
-      <c r="D10" s="186" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="186"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="182" t="s">
+      <c r="B10" s="137"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="138" t="s">
+        <v>181</v>
+      </c>
+      <c r="E10" s="138"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="186" t="s">
-        <v>184</v>
-      </c>
-      <c r="E11" s="186"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="146" t="s">
+      <c r="B11" s="137"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="138" t="s">
+        <v>181</v>
+      </c>
+      <c r="E11" s="138"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="152" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="146"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="147" t="s">
+      <c r="B12" s="152"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="E12" s="147"/>
-      <c r="F12" s="92" t="s">
+      <c r="E12" s="151"/>
+      <c r="F12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G12" s="52"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="146" t="s">
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="152" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="146"/>
-      <c r="C13" s="146"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="52" t="s">
+      <c r="B13" s="152"/>
+      <c r="C13" s="152"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="92"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="146" t="s">
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="152" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="146"/>
-      <c r="C14" s="146"/>
-      <c r="D14" s="147" t="s">
+      <c r="B14" s="152"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="151" t="s">
         <v>158</v>
       </c>
-      <c r="E14" s="147"/>
+      <c r="E14" s="151"/>
       <c r="F14" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="146" t="s">
+    <row r="15" spans="1:6">
+      <c r="A15" s="152" t="s">
         <v>160</v>
       </c>
-      <c r="B15" s="146"/>
-      <c r="C15" s="146"/>
-      <c r="D15" s="187" t="s">
-        <v>177</v>
-      </c>
-      <c r="E15" s="147"/>
+      <c r="B15" s="152"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="153" t="s">
+        <v>174</v>
+      </c>
+      <c r="E15" s="151"/>
       <c r="F15" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="146" t="s">
+    <row r="16" spans="1:6">
+      <c r="A16" s="152" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="146"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="187" t="s">
-        <v>181</v>
-      </c>
-      <c r="E16" s="147"/>
+      <c r="B16" s="152"/>
+      <c r="C16" s="152"/>
+      <c r="D16" s="153" t="s">
+        <v>178</v>
+      </c>
+      <c r="E16" s="151"/>
       <c r="F16" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="146" t="s">
+      <c r="A17" s="152" t="s">
         <v>164</v>
       </c>
-      <c r="B17" s="146"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="147"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="152"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="151"/>
       <c r="F17" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="143" t="s">
+      <c r="A18" s="177" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="144"/>
-      <c r="C18" s="145"/>
-      <c r="D18" s="111"/>
+      <c r="B18" s="178"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="101"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="148" t="s">
+      <c r="A19" s="180" t="s">
         <v>130</v>
       </c>
-      <c r="B19" s="149"/>
-      <c r="C19" s="150"/>
-      <c r="D19" s="97"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="87"/>
       <c r="E19" t="s">
         <v>131</v>
       </c>
@@ -4403,136 +4367,136 @@
       <c r="B20" s="6"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="160" t="s">
+      <c r="A21" s="154" t="s">
         <v>138</v>
       </c>
-      <c r="B21" s="161"/>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="162"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="155"/>
+      <c r="D21" s="155"/>
+      <c r="E21" s="155"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="156"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="88" t="s">
         <v>132</v>
       </c>
-      <c r="B22" s="107"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100" t="s">
+      <c r="B22" s="97"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="90" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="101"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="102"/>
-      <c r="J22" s="102"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="91"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="95" t="s">
+      <c r="A23" s="85" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="110"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="E23" s="94"/>
-      <c r="F23" s="94"/>
-      <c r="G23" s="103"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="83" t="s">
+        <v>175</v>
+      </c>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="93"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="85" t="s">
         <v>133</v>
       </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="106"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
     </row>
     <row r="25" spans="1:15">
       <c r="C25"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="159" t="s">
+      <c r="A26" s="176" t="s">
         <v>139</v>
       </c>
-      <c r="B26" s="159"/>
-      <c r="C26" s="159"/>
-      <c r="D26" s="159"/>
-      <c r="E26" s="159"/>
-      <c r="F26" s="159"/>
-      <c r="G26" s="159"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="153" t="s">
+      <c r="B27" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="154"/>
-      <c r="D27" s="154"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="154"/>
-      <c r="G27" s="155"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="N27" s="108"/>
-      <c r="O27" s="108"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
+      <c r="E27" s="171"/>
+      <c r="F27" s="171"/>
+      <c r="G27" s="172"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="98"/>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="113"/>
-      <c r="B28" s="167"/>
-      <c r="C28" s="167"/>
-      <c r="D28" s="167"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="167"/>
-      <c r="G28" s="167"/>
-      <c r="H28" s="109"/>
-      <c r="I28" s="109"/>
-      <c r="J28" s="109"/>
-      <c r="K28" s="109"/>
+      <c r="A28" s="103"/>
+      <c r="B28" s="159"/>
+      <c r="C28" s="159"/>
+      <c r="D28" s="159"/>
+      <c r="E28" s="159"/>
+      <c r="F28" s="159"/>
+      <c r="G28" s="159"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="99"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="114"/>
-      <c r="B29" s="168"/>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
-      <c r="E29" s="168"/>
-      <c r="F29" s="168"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="109"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
+      <c r="A29" s="104"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="160"/>
+      <c r="D29" s="160"/>
+      <c r="E29" s="160"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="160"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
       <c r="M29"/>
       <c r="N29"/>
       <c r="O29"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="115"/>
-      <c r="B30" s="169"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
+      <c r="A30" s="105"/>
+      <c r="B30" s="161"/>
+      <c r="C30" s="161"/>
+      <c r="D30" s="161"/>
+      <c r="E30" s="161"/>
+      <c r="F30" s="161"/>
+      <c r="G30" s="161"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
       <c r="M30"/>
       <c r="N30"/>
       <c r="O30"/>
@@ -4541,80 +4505,80 @@
       <c r="C31"/>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="156" t="s">
+      <c r="A32" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="157"/>
-      <c r="C32" s="157"/>
-      <c r="D32" s="157"/>
-      <c r="E32" s="157"/>
-      <c r="F32" s="157"/>
-      <c r="G32" s="158"/>
+      <c r="B32" s="174"/>
+      <c r="C32" s="174"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174"/>
+      <c r="G32" s="175"/>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="112" t="s">
+      <c r="A33" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="176" t="s">
+      <c r="B33" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="176"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="102"/>
-      <c r="L33" s="102"/>
-      <c r="N33" s="108"/>
-      <c r="O33" s="108"/>
+      <c r="C33" s="165"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="G33" s="165"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="113"/>
-      <c r="B34" s="177"/>
-      <c r="C34" s="177"/>
-      <c r="D34" s="177"/>
-      <c r="E34" s="177"/>
-      <c r="F34" s="177"/>
-      <c r="G34" s="177"/>
-      <c r="H34" s="109"/>
-      <c r="I34" s="109"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
+      <c r="A34" s="103"/>
+      <c r="B34" s="145"/>
+      <c r="C34" s="145"/>
+      <c r="D34" s="145"/>
+      <c r="E34" s="145"/>
+      <c r="F34" s="145"/>
+      <c r="G34" s="145"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="99"/>
+      <c r="J34" s="99"/>
+      <c r="K34" s="99"/>
       <c r="M34"/>
       <c r="N34"/>
       <c r="O34"/>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="114"/>
-      <c r="B35" s="178"/>
-      <c r="C35" s="178"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="178"/>
-      <c r="H35" s="109"/>
-      <c r="I35" s="109"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="109"/>
+      <c r="A35" s="104"/>
+      <c r="B35" s="147"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="147"/>
+      <c r="F35" s="147"/>
+      <c r="G35" s="147"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="99"/>
+      <c r="J35" s="99"/>
+      <c r="K35" s="99"/>
       <c r="M35"/>
       <c r="N35"/>
       <c r="O35"/>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="115"/>
-      <c r="B36" s="179"/>
-      <c r="C36" s="179"/>
-      <c r="D36" s="179"/>
-      <c r="E36" s="179"/>
-      <c r="F36" s="179"/>
-      <c r="G36" s="179"/>
-      <c r="H36" s="109"/>
-      <c r="I36" s="109"/>
-      <c r="J36" s="109"/>
-      <c r="K36" s="109"/>
+      <c r="A36" s="105"/>
+      <c r="B36" s="149"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="99"/>
+      <c r="K36" s="99"/>
       <c r="M36"/>
       <c r="N36"/>
       <c r="O36"/>
@@ -4635,84 +4599,84 @@
       <c r="M37"/>
     </row>
     <row r="38" spans="1:15">
-      <c r="A38" s="156" t="s">
+      <c r="A38" s="173" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="157"/>
-      <c r="C38" s="157"/>
-      <c r="D38" s="157"/>
-      <c r="E38" s="157"/>
-      <c r="F38" s="157"/>
-      <c r="G38" s="158"/>
+      <c r="B38" s="174"/>
+      <c r="C38" s="174"/>
+      <c r="D38" s="174"/>
+      <c r="E38" s="174"/>
+      <c r="F38" s="174"/>
+      <c r="G38" s="175"/>
     </row>
     <row r="39" spans="1:15">
-      <c r="A39" s="112" t="s">
+      <c r="A39" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B39" s="176" t="s">
+      <c r="B39" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="102"/>
-      <c r="L39" s="102"/>
-      <c r="N39" s="108"/>
-      <c r="O39" s="108"/>
+      <c r="C39" s="165"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92"/>
+      <c r="J39" s="92"/>
+      <c r="K39" s="92"/>
+      <c r="L39" s="92"/>
+      <c r="N39" s="98"/>
+      <c r="O39" s="98"/>
     </row>
     <row r="40" spans="1:15">
-      <c r="A40" s="113">
+      <c r="A40" s="103">
         <v>1</v>
       </c>
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="C40" s="177"/>
-      <c r="D40" s="177"/>
-      <c r="E40" s="177"/>
-      <c r="F40" s="177"/>
-      <c r="G40" s="183"/>
-      <c r="H40" s="109"/>
-      <c r="I40" s="109"/>
-      <c r="J40" s="109"/>
-      <c r="K40" s="109"/>
+      <c r="C40" s="145"/>
+      <c r="D40" s="145"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="145"/>
+      <c r="G40" s="146"/>
+      <c r="H40" s="99"/>
+      <c r="I40" s="99"/>
+      <c r="J40" s="99"/>
+      <c r="K40" s="99"/>
       <c r="M40"/>
       <c r="N40"/>
       <c r="O40"/>
     </row>
     <row r="41" spans="1:15">
-      <c r="A41" s="114"/>
-      <c r="B41" s="178"/>
-      <c r="C41" s="178"/>
-      <c r="D41" s="178"/>
-      <c r="E41" s="178"/>
-      <c r="F41" s="178"/>
-      <c r="G41" s="184"/>
-      <c r="H41" s="109"/>
-      <c r="I41" s="109"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="109"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="147"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="148"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="99"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="99"/>
       <c r="M41"/>
       <c r="N41"/>
       <c r="O41"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="115"/>
-      <c r="B42" s="179"/>
-      <c r="C42" s="179"/>
-      <c r="D42" s="179"/>
-      <c r="E42" s="179"/>
-      <c r="F42" s="179"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="109"/>
-      <c r="I42" s="109"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
+      <c r="A42" s="105"/>
+      <c r="B42" s="149"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="150"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="99"/>
+      <c r="J42" s="99"/>
+      <c r="K42" s="99"/>
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
@@ -4740,106 +4704,115 @@
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="131"/>
-      <c r="G44" s="132"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="121"/>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="151" t="s">
+      <c r="A45" s="166" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="152"/>
-      <c r="C45" s="151" t="s">
+      <c r="B45" s="169"/>
+      <c r="C45" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="D45" s="180"/>
-      <c r="E45" s="181"/>
-      <c r="F45" s="133" t="s">
+      <c r="D45" s="167"/>
+      <c r="E45" s="168"/>
+      <c r="F45" s="122" t="s">
         <v>154</v>
       </c>
-      <c r="G45" s="132"/>
+      <c r="G45" s="121"/>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="163"/>
-      <c r="B46" s="164"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="171"/>
-      <c r="E46" s="172"/>
+      <c r="A46" s="135"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="132"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="134"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="49"/>
+      <c r="G46" s="43"/>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="163"/>
-      <c r="B47" s="164"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="171"/>
-      <c r="E47" s="172"/>
+      <c r="A47" s="135"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="132"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="134"/>
       <c r="F47" s="3"/>
-      <c r="G47" s="49"/>
+      <c r="G47" s="43"/>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="163"/>
-      <c r="B48" s="164"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="171"/>
-      <c r="E48" s="172"/>
+      <c r="A48" s="135"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="132"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="134"/>
       <c r="F48" s="3"/>
-      <c r="G48" s="49"/>
+      <c r="G48" s="43"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="163"/>
-      <c r="B49" s="164"/>
-      <c r="C49" s="170"/>
-      <c r="D49" s="171"/>
-      <c r="E49" s="172"/>
+      <c r="A49" s="135"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="132"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="134"/>
       <c r="F49" s="3"/>
-      <c r="G49" s="49"/>
+      <c r="G49" s="43"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="163"/>
-      <c r="B50" s="164"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="171"/>
-      <c r="E50" s="172"/>
+      <c r="A50" s="135"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="132"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="134"/>
       <c r="F50" s="3"/>
-      <c r="G50" s="49"/>
+      <c r="G50" s="43"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="163"/>
-      <c r="B51" s="164"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="171"/>
-      <c r="E51" s="172"/>
+      <c r="A51" s="135"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="132"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="134"/>
       <c r="F51" s="3"/>
-      <c r="G51" s="49"/>
+      <c r="G51" s="43"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="165"/>
-      <c r="B52" s="166"/>
-      <c r="C52" s="173"/>
-      <c r="D52" s="174"/>
-      <c r="E52" s="175"/>
-      <c r="F52" s="123"/>
-      <c r="G52" s="134"/>
+      <c r="A52" s="157"/>
+      <c r="B52" s="158"/>
+      <c r="C52" s="162"/>
+      <c r="D52" s="163"/>
+      <c r="E52" s="164"/>
+      <c r="F52" s="113"/>
+      <c r="G52" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="59">
-    <mergeCell ref="C46:E46"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="C47:E47"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C52:E52"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="C45:E45"/>
+    <mergeCell ref="A46:B46"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="B40:G40"/>
     <mergeCell ref="B41:G41"/>
@@ -4856,32 +4829,23 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="D17:E17"/>
     <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C51:E51"/>
-    <mergeCell ref="C52:E52"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="C45:E45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="C46:E46"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C47:E47"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4914,10 +4878,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X94"/>
+  <dimension ref="A1:T94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -4978,45 +4942,27 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="126" t="str">
+      <c r="C6" s="116" t="str">
         <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
         <v>SampleLogoutPutRequest</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="D6" s="117"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="D7" s="124"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
+      <c r="D7" s="114"/>
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:17">
@@ -5024,138 +4970,104 @@
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="118" t="s">
+      <c r="C8" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="122"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="D8" s="112"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="118" t="s">
+      <c r="C9" s="108" t="s">
         <v>150</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="M9" s="28"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="45" t="s">
         <v>122</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="118"/>
+      <c r="C10" s="108"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="H10" s="28"/>
-      <c r="M10" s="28"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="45" t="s">
         <v>123</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="118"/>
+      <c r="C11" s="108"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="H11" s="28"/>
-      <c r="M11" s="28"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="45" t="s">
         <v>124</v>
       </c>
       <c r="B12" s="5"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="H12" s="28"/>
-      <c r="M12" s="28"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="113"/>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
-      <c r="C13" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D13" s="125"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
+      <c r="C13" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="115"/>
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="217" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
+      <c r="C14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D14" s="33"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="119" t="s">
+      <c r="A15" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="147" t="s">
+      <c r="B15" s="109"/>
+      <c r="C15" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="147"/>
-      <c r="E15" s="92" t="s">
+      <c r="D15" s="151"/>
+      <c r="E15" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="G15" s="52"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="147"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="92"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="151"/>
+      <c r="D16" s="151"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
-      <c r="M16" s="92"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="120" t="s">
+      <c r="A17" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="B17" s="121"/>
-      <c r="C17" s="97"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="87"/>
       <c r="D17" t="s">
         <v>131</v>
       </c>
@@ -5173,11 +5085,11 @@
       <c r="Q17"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="129" t="s">
+      <c r="A18" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="97"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="87"/>
       <c r="D18" t="s">
         <v>151</v>
       </c>
@@ -5196,246 +5108,245 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="6"/>
-      <c r="C19" s="28"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="159" t="s">
+      <c r="A20" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="B20" s="159"/>
-      <c r="C20" s="159"/>
-      <c r="D20" s="159"/>
-      <c r="E20" s="159"/>
-      <c r="F20" s="159"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="176"/>
+      <c r="F20" s="176"/>
+      <c r="G20" s="176"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
     </row>
     <row r="21" spans="1:20">
-      <c r="A21" s="112" t="s">
+      <c r="A21" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="153" t="s">
+      <c r="B21" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="C21" s="154"/>
-      <c r="D21" s="154"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="102"/>
+      <c r="C21" s="171"/>
+      <c r="D21" s="171"/>
+      <c r="E21" s="171"/>
+      <c r="F21" s="171"/>
+      <c r="G21" s="172"/>
+      <c r="H21" s="92"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102"/>
-      <c r="Q21" s="102"/>
-      <c r="S21" s="108"/>
-      <c r="T21" s="108"/>
+      <c r="M21" s="92"/>
+      <c r="N21" s="92"/>
+      <c r="O21" s="92"/>
+      <c r="P21" s="92"/>
+      <c r="Q21" s="92"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="113"/>
-      <c r="B22" s="167"/>
-      <c r="C22" s="167"/>
-      <c r="D22" s="167"/>
-      <c r="E22" s="167"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="167"/>
-      <c r="H22" s="109"/>
+      <c r="A22" s="103"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="159"/>
+      <c r="D22" s="159"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="159"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="99"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="109"/>
-      <c r="P22" s="109"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="99"/>
+      <c r="P22" s="99"/>
       <c r="R22"/>
       <c r="S22"/>
       <c r="T22"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="114"/>
-      <c r="B23" s="168"/>
-      <c r="C23" s="168"/>
-      <c r="D23" s="168"/>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="109"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="109"/>
-      <c r="O23" s="109"/>
-      <c r="P23" s="109"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="160"/>
+      <c r="C23" s="160"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="99"/>
+      <c r="P23" s="99"/>
       <c r="R23"/>
       <c r="S23"/>
       <c r="T23"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="115"/>
-      <c r="B24" s="169"/>
-      <c r="C24" s="169"/>
-      <c r="D24" s="169"/>
-      <c r="E24" s="169"/>
-      <c r="F24" s="169"/>
-      <c r="G24" s="169"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="M24" s="109"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
+      <c r="A24" s="105"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="161"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
     </row>
     <row r="25" spans="1:20">
       <c r="C25"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="156" t="s">
+      <c r="A26" s="173" t="s">
         <v>143</v>
       </c>
-      <c r="B26" s="157"/>
-      <c r="C26" s="157"/>
-      <c r="D26" s="157"/>
-      <c r="E26" s="157"/>
-      <c r="F26" s="157"/>
-      <c r="G26" s="158"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
+      <c r="B26" s="174"/>
+      <c r="C26" s="174"/>
+      <c r="D26" s="174"/>
+      <c r="E26" s="174"/>
+      <c r="F26" s="174"/>
+      <c r="G26" s="175"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="A27" s="112" t="s">
+      <c r="A27" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="176" t="s">
+      <c r="B27" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="102"/>
+      <c r="C27" s="165"/>
+      <c r="D27" s="165"/>
+      <c r="E27" s="165"/>
+      <c r="F27" s="165"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="92"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="S27" s="108"/>
-      <c r="T27" s="108"/>
+      <c r="M27" s="92"/>
+      <c r="N27" s="92"/>
+      <c r="O27" s="92"/>
+      <c r="P27" s="92"/>
+      <c r="Q27" s="92"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="113">
+      <c r="A28" s="103">
         <v>1</v>
       </c>
-      <c r="B28" s="177" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="177"/>
-      <c r="D28" s="177"/>
-      <c r="E28" s="177"/>
-      <c r="F28" s="177"/>
-      <c r="G28" s="177"/>
-      <c r="H28" s="109"/>
-      <c r="M28" s="109"/>
-      <c r="N28" s="109"/>
-      <c r="O28" s="109"/>
-      <c r="P28" s="109"/>
+      <c r="B28" s="145" t="s">
+        <v>182</v>
+      </c>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="99"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="99"/>
+      <c r="P28" s="99"/>
       <c r="R28"/>
       <c r="S28"/>
       <c r="T28"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="113">
+      <c r="A29" s="103">
         <v>2</v>
       </c>
-      <c r="B29" s="177" t="s">
-        <v>175</v>
-      </c>
-      <c r="C29" s="177"/>
-      <c r="D29" s="177"/>
-      <c r="E29" s="177"/>
-      <c r="F29" s="177"/>
-      <c r="G29" s="177"/>
-      <c r="H29" s="109"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="109"/>
-      <c r="P29" s="109"/>
+      <c r="B29" s="145" t="s">
+        <v>183</v>
+      </c>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="145"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="99"/>
+      <c r="O29" s="99"/>
+      <c r="P29" s="99"/>
       <c r="R29"/>
       <c r="S29"/>
       <c r="T29"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="113">
+      <c r="A30" s="103">
         <v>3</v>
       </c>
-      <c r="B30" s="177" t="s">
-        <v>176</v>
-      </c>
-      <c r="C30" s="177"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="177"/>
-      <c r="F30" s="177"/>
-      <c r="G30" s="177"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
+      <c r="B30" s="145" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="145"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
       <c r="R30"/>
       <c r="S30"/>
       <c r="T30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="113"/>
-      <c r="B31" s="177"/>
-      <c r="C31" s="177"/>
-      <c r="D31" s="177"/>
-      <c r="E31" s="177"/>
-      <c r="F31" s="177"/>
-      <c r="G31" s="177"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
+      <c r="A31" s="103"/>
+      <c r="B31" s="145"/>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="145"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31"/>
@@ -5449,10 +5360,10 @@
       <c r="F32"/>
       <c r="G32"/>
       <c r="H32"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
@@ -5460,98 +5371,98 @@
       <c r="Q32"/>
       <c r="R32"/>
     </row>
-    <row r="33" spans="1:24">
-      <c r="A33" s="156" t="s">
+    <row r="33" spans="1:20">
+      <c r="A33" s="173" t="s">
         <v>144</v>
       </c>
-      <c r="B33" s="157"/>
-      <c r="C33" s="157"/>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157"/>
-      <c r="F33" s="157"/>
-      <c r="G33" s="158"/>
-      <c r="I33" s="109"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-    </row>
-    <row r="34" spans="1:24">
-      <c r="A34" s="112" t="s">
+      <c r="B33" s="174"/>
+      <c r="C33" s="174"/>
+      <c r="D33" s="174"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="175"/>
+      <c r="I33" s="99"/>
+      <c r="J33" s="99"/>
+      <c r="K33" s="99"/>
+      <c r="L33" s="99"/>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="176" t="s">
+      <c r="B34" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="102"/>
+      <c r="C34" s="165"/>
+      <c r="D34" s="165"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="165"/>
+      <c r="G34" s="165"/>
+      <c r="H34" s="92"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="S34" s="108"/>
-      <c r="T34" s="108"/>
-    </row>
-    <row r="35" spans="1:24">
-      <c r="A35" s="113"/>
-      <c r="B35" s="167"/>
-      <c r="C35" s="167"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="167"/>
-      <c r="F35" s="167"/>
-      <c r="G35" s="207"/>
-      <c r="H35" s="109"/>
-      <c r="M35" s="109"/>
-      <c r="N35" s="109"/>
-      <c r="O35" s="109"/>
-      <c r="P35" s="109"/>
+      <c r="M34" s="92"/>
+      <c r="N34" s="92"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="92"/>
+      <c r="Q34" s="92"/>
+      <c r="S34" s="98"/>
+      <c r="T34" s="98"/>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="103"/>
+      <c r="B35" s="159"/>
+      <c r="C35" s="159"/>
+      <c r="D35" s="159"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="159"/>
+      <c r="G35" s="193"/>
+      <c r="H35" s="99"/>
+      <c r="M35" s="99"/>
+      <c r="N35" s="99"/>
+      <c r="O35" s="99"/>
+      <c r="P35" s="99"/>
       <c r="R35"/>
       <c r="S35"/>
       <c r="T35"/>
     </row>
-    <row r="36" spans="1:24">
-      <c r="A36" s="114"/>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
-      <c r="E36" s="168"/>
-      <c r="F36" s="168"/>
-      <c r="G36" s="208"/>
-      <c r="H36" s="109"/>
-      <c r="M36" s="109"/>
-      <c r="N36" s="109"/>
-      <c r="O36" s="109"/>
-      <c r="P36" s="109"/>
+    <row r="36" spans="1:20">
+      <c r="A36" s="104"/>
+      <c r="B36" s="160"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="160"/>
+      <c r="E36" s="160"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="99"/>
+      <c r="M36" s="99"/>
+      <c r="N36" s="99"/>
+      <c r="O36" s="99"/>
+      <c r="P36" s="99"/>
       <c r="R36"/>
       <c r="S36"/>
       <c r="T36"/>
     </row>
-    <row r="37" spans="1:24">
-      <c r="A37" s="115"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="194"/>
-      <c r="H37" s="109"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="109"/>
-      <c r="O37" s="109"/>
-      <c r="P37" s="109"/>
+    <row r="37" spans="1:20">
+      <c r="A37" s="105"/>
+      <c r="B37" s="161"/>
+      <c r="C37" s="161"/>
+      <c r="D37" s="161"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="161"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="99"/>
+      <c r="M37" s="99"/>
+      <c r="N37" s="99"/>
+      <c r="O37" s="99"/>
+      <c r="P37" s="99"/>
       <c r="R37"/>
       <c r="S37"/>
       <c r="T37"/>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:20">
       <c r="A38"/>
       <c r="B38"/>
       <c r="C38"/>
@@ -5567,645 +5478,640 @@
       <c r="Q38"/>
       <c r="R38"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:20">
       <c r="A39" s="6"/>
-      <c r="I39" s="135"/>
-      <c r="J39" s="135"/>
-      <c r="K39" s="135"/>
-      <c r="L39" s="135"/>
-    </row>
-    <row r="40" spans="1:24">
-      <c r="A40" s="19" t="s">
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B40" s="37"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="116"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
-      <c r="I40" s="136"/>
-      <c r="J40" s="136"/>
-      <c r="K40" s="136"/>
-      <c r="L40" s="136"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="37"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="37"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="37"/>
-      <c r="S40" s="38"/>
-      <c r="T40" s="53"/>
-      <c r="U40" s="53"/>
-      <c r="V40" s="53"/>
-      <c r="W40" s="39"/>
-      <c r="X40" s="39"/>
-    </row>
-    <row r="41" spans="1:24">
-      <c r="A41" s="195" t="s">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="125"/>
+      <c r="J40" s="125"/>
+      <c r="K40" s="125"/>
+      <c r="L40" s="125"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="5"/>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="183" t="s">
         <v>68</v>
       </c>
-      <c r="B41" s="195" t="s">
+      <c r="B41" s="183" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="197" t="s">
+      <c r="C41" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="D41" s="195" t="s">
+      <c r="D41" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="E41" s="198" t="s">
+      <c r="E41" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="F41" s="198" t="s">
+      <c r="F41" s="185" t="s">
         <v>129</v>
       </c>
-      <c r="G41" s="195" t="s">
+      <c r="G41" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="H41" s="195" t="s">
+      <c r="H41" s="183" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="204" t="s">
+      <c r="I41" s="190" t="s">
         <v>166</v>
       </c>
-      <c r="J41" s="204" t="s">
+      <c r="J41" s="190" t="s">
         <v>167</v>
       </c>
-      <c r="K41" s="204" t="s">
+      <c r="K41" s="190" t="s">
         <v>168</v>
       </c>
-      <c r="L41" s="205" t="s">
+      <c r="L41" s="191" t="s">
         <v>169</v>
       </c>
-      <c r="M41" s="195" t="s">
+      <c r="M41" s="183" t="s">
         <v>145</v>
       </c>
-      <c r="N41" s="202" t="s">
+      <c r="N41" s="188" t="s">
         <v>70</v>
       </c>
-      <c r="O41" s="203"/>
-      <c r="P41" s="202" t="s">
+      <c r="O41" s="189"/>
+      <c r="P41" s="188" t="s">
         <v>17</v>
       </c>
-      <c r="Q41" s="203"/>
-      <c r="R41" s="34" t="s">
+      <c r="Q41" s="189"/>
+      <c r="R41" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="S41" s="195" t="s">
+      <c r="S41" s="183" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:24">
-      <c r="A42" s="196"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="199"/>
-      <c r="F42" s="200"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="204"/>
-      <c r="J42" s="204"/>
-      <c r="K42" s="204"/>
-      <c r="L42" s="206"/>
-      <c r="M42" s="201"/>
-      <c r="N42" s="29" t="s">
+    <row r="42" spans="1:20">
+      <c r="A42" s="184"/>
+      <c r="B42" s="184"/>
+      <c r="C42" s="184"/>
+      <c r="D42" s="184"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="184"/>
+      <c r="H42" s="184"/>
+      <c r="I42" s="190"/>
+      <c r="J42" s="190"/>
+      <c r="K42" s="190"/>
+      <c r="L42" s="192"/>
+      <c r="M42" s="187"/>
+      <c r="N42" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="O42" s="29" t="s">
+      <c r="O42" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="P42" s="29" t="s">
+      <c r="P42" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="Q42" s="29" t="s">
+      <c r="Q42" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="R42" s="29" t="s">
+      <c r="R42" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="S42" s="196"/>
-    </row>
-    <row r="43" spans="1:24" ht="45">
+      <c r="S42" s="184"/>
+    </row>
+    <row r="43" spans="1:20" ht="45">
       <c r="A43" s="7">
         <v>1</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="20" t="s">
         <v>170</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="25" t="s">
+      <c r="D43" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="24"/>
-      <c r="F43" s="117"/>
-      <c r="G43" s="82" t="s">
+      <c r="E43" s="23"/>
+      <c r="F43" s="107"/>
+      <c r="G43" s="73" t="s">
         <v>108</v>
       </c>
-      <c r="H43" s="25" t="s">
+      <c r="H43" s="24" t="s">
         <v>173</v>
       </c>
-      <c r="I43" s="137"/>
-      <c r="J43" s="137"/>
-      <c r="K43" s="142" t="s">
-        <v>179</v>
-      </c>
-      <c r="L43" s="137"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="31">
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="131" t="s">
+        <v>176</v>
+      </c>
+      <c r="L43" s="126"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="29">
         <v>254</v>
       </c>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="28"/>
+      <c r="R43" s="28"/>
       <c r="S43" s="9"/>
     </row>
-    <row r="44" spans="1:24">
+    <row r="44" spans="1:20">
       <c r="A44" s="10"/>
-      <c r="B44" s="21"/>
+      <c r="B44" s="20"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="25"/>
-      <c r="I44" s="139"/>
-      <c r="J44" s="139"/>
-      <c r="K44" s="140"/>
-      <c r="L44" s="139"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="31"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="31"/>
-      <c r="R44" s="31"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="128"/>
+      <c r="J44" s="128"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="128"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="20"/>
+      <c r="O44" s="29"/>
+      <c r="P44" s="20"/>
+      <c r="Q44" s="29"/>
+      <c r="R44" s="29"/>
       <c r="S44" s="12"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:20">
       <c r="A45" s="10"/>
-      <c r="B45" s="22"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="13"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="83"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="139"/>
-      <c r="K45" s="140"/>
-      <c r="L45" s="139"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="31"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="31"/>
-      <c r="R45" s="31"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="74"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="129"/>
+      <c r="L45" s="128"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="20"/>
+      <c r="O45" s="29"/>
+      <c r="P45" s="20"/>
+      <c r="Q45" s="29"/>
+      <c r="R45" s="29"/>
       <c r="S45" s="14"/>
     </row>
-    <row r="46" spans="1:24">
+    <row r="46" spans="1:20">
       <c r="A46" s="10"/>
-      <c r="B46" s="22"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="80"/>
-      <c r="F46" s="80"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="139"/>
-      <c r="L46" s="139"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="21"/>
-      <c r="O46" s="31"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="31"/>
-      <c r="R46" s="31"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="75"/>
+      <c r="H46" s="71"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="128"/>
+      <c r="K46" s="128"/>
+      <c r="L46" s="128"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="20"/>
+      <c r="O46" s="29"/>
+      <c r="P46" s="20"/>
+      <c r="Q46" s="29"/>
+      <c r="R46" s="29"/>
       <c r="S46" s="14"/>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:20">
       <c r="A47" s="10"/>
-      <c r="B47" s="22"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="83"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="140"/>
-      <c r="J47" s="140"/>
-      <c r="K47" s="140"/>
-      <c r="L47" s="140"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="32"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="32"/>
-      <c r="R47" s="32"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="74"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="129"/>
+      <c r="J47" s="129"/>
+      <c r="K47" s="129"/>
+      <c r="L47" s="129"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
       <c r="S47" s="14"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:20">
       <c r="A48" s="10"/>
-      <c r="B48" s="22"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="83"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="139"/>
-      <c r="K48" s="139"/>
-      <c r="L48" s="139"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="31"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="31"/>
-      <c r="R48" s="31"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="74"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="128"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="20"/>
+      <c r="O48" s="29"/>
+      <c r="P48" s="20"/>
+      <c r="Q48" s="29"/>
+      <c r="R48" s="29"/>
       <c r="S48" s="14"/>
     </row>
     <row r="49" spans="1:19">
       <c r="A49" s="10"/>
-      <c r="B49" s="22"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="83"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="140"/>
-      <c r="J49" s="140"/>
-      <c r="K49" s="140"/>
-      <c r="L49" s="140"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="31"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="31"/>
-      <c r="R49" s="31"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="74"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="129"/>
+      <c r="J49" s="129"/>
+      <c r="K49" s="129"/>
+      <c r="L49" s="129"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="20"/>
+      <c r="O49" s="29"/>
+      <c r="P49" s="20"/>
+      <c r="Q49" s="29"/>
+      <c r="R49" s="29"/>
       <c r="S49" s="14"/>
     </row>
     <row r="50" spans="1:19">
       <c r="A50" s="10"/>
-      <c r="B50" s="22"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="83"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="139"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="31"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="31"/>
-      <c r="R50" s="31"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="74"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="128"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="20"/>
+      <c r="O50" s="29"/>
+      <c r="P50" s="20"/>
+      <c r="Q50" s="29"/>
+      <c r="R50" s="29"/>
       <c r="S50" s="14"/>
     </row>
     <row r="51" spans="1:19">
       <c r="A51" s="10"/>
-      <c r="B51" s="22"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="83"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="140"/>
-      <c r="K51" s="140"/>
-      <c r="L51" s="140"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="32"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="32"/>
-      <c r="R51" s="32"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="74"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="129"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
       <c r="S51" s="14"/>
     </row>
     <row r="52" spans="1:19">
       <c r="A52" s="10"/>
-      <c r="B52" s="22"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="83"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="139"/>
-      <c r="J52" s="139"/>
-      <c r="K52" s="139"/>
-      <c r="L52" s="139"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="31"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="74"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="128"/>
+      <c r="J52" s="128"/>
+      <c r="K52" s="128"/>
+      <c r="L52" s="128"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="20"/>
+      <c r="O52" s="29"/>
+      <c r="P52" s="20"/>
+      <c r="Q52" s="29"/>
+      <c r="R52" s="29"/>
       <c r="S52" s="14"/>
     </row>
     <row r="53" spans="1:19">
       <c r="A53" s="10"/>
-      <c r="B53" s="22"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="83"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="139"/>
-      <c r="J53" s="139"/>
-      <c r="K53" s="139"/>
-      <c r="L53" s="139"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="31"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="128"/>
+      <c r="J53" s="128"/>
+      <c r="K53" s="128"/>
+      <c r="L53" s="128"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="20"/>
+      <c r="O53" s="29"/>
+      <c r="P53" s="20"/>
+      <c r="Q53" s="29"/>
+      <c r="R53" s="29"/>
       <c r="S53" s="14"/>
     </row>
     <row r="54" spans="1:19">
       <c r="A54" s="10"/>
-      <c r="B54" s="22"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="13"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="83"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="139"/>
-      <c r="J54" s="139"/>
-      <c r="K54" s="139"/>
-      <c r="L54" s="139"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="21"/>
-      <c r="O54" s="31"/>
-      <c r="P54" s="21"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="74"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="128"/>
+      <c r="J54" s="128"/>
+      <c r="K54" s="128"/>
+      <c r="L54" s="128"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="20"/>
+      <c r="O54" s="29"/>
+      <c r="P54" s="20"/>
+      <c r="Q54" s="29"/>
+      <c r="R54" s="29"/>
       <c r="S54" s="14"/>
     </row>
     <row r="55" spans="1:19">
       <c r="A55" s="10"/>
-      <c r="B55" s="22"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="13"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="83"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="139"/>
-      <c r="J55" s="139"/>
-      <c r="K55" s="139"/>
-      <c r="L55" s="139"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="74"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="128"/>
+      <c r="J55" s="128"/>
+      <c r="K55" s="128"/>
+      <c r="L55" s="128"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="20"/>
+      <c r="O55" s="29"/>
+      <c r="P55" s="20"/>
+      <c r="Q55" s="29"/>
+      <c r="R55" s="29"/>
       <c r="S55" s="14"/>
     </row>
     <row r="56" spans="1:19">
       <c r="A56" s="10"/>
-      <c r="B56" s="22"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="13"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="83"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="139"/>
-      <c r="J56" s="139"/>
-      <c r="K56" s="139"/>
-      <c r="L56" s="139"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="74"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128"/>
+      <c r="K56" s="128"/>
+      <c r="L56" s="128"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="20"/>
+      <c r="O56" s="29"/>
+      <c r="P56" s="20"/>
+      <c r="Q56" s="29"/>
+      <c r="R56" s="29"/>
       <c r="S56" s="14"/>
     </row>
     <row r="57" spans="1:19">
       <c r="A57" s="10"/>
-      <c r="B57" s="22"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="13"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="83"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="25"/>
-      <c r="O57" s="32"/>
-      <c r="P57" s="25"/>
-      <c r="Q57" s="32"/>
-      <c r="R57" s="32"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="74"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="24"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="24"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
       <c r="S57" s="14"/>
     </row>
     <row r="58" spans="1:19">
       <c r="A58" s="10"/>
-      <c r="B58" s="22"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="13"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="83"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="21"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="21"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="20"/>
+      <c r="O58" s="29"/>
+      <c r="P58" s="20"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
       <c r="S58" s="14"/>
     </row>
     <row r="59" spans="1:19">
       <c r="A59" s="10"/>
-      <c r="B59" s="22"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="13"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="83"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="21"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="21"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="74"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="20"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="20"/>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29"/>
       <c r="S59" s="14"/>
     </row>
     <row r="60" spans="1:19">
       <c r="A60" s="10"/>
-      <c r="B60" s="22"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="13"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="21"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="21"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="74"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="20"/>
+      <c r="O60" s="29"/>
+      <c r="P60" s="20"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
       <c r="S60" s="14"/>
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="10"/>
-      <c r="B61" s="22"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="13"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="25"/>
-      <c r="N61" s="21"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="21"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="74"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="20"/>
+      <c r="O61" s="29"/>
+      <c r="P61" s="20"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
       <c r="S61" s="14"/>
     </row>
     <row r="62" spans="1:19">
       <c r="A62" s="10"/>
-      <c r="B62" s="22"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="13"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="83"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="32"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="32"/>
-      <c r="R62" s="32"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="74"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="30"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="30"/>
+      <c r="R62" s="30"/>
       <c r="S62" s="14"/>
     </row>
     <row r="63" spans="1:19">
       <c r="A63" s="10"/>
-      <c r="B63" s="22"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="13"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="83"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="25"/>
-      <c r="N63" s="21"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="21"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="74"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="20"/>
+      <c r="O63" s="29"/>
+      <c r="P63" s="20"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
       <c r="S63" s="14"/>
     </row>
     <row r="64" spans="1:19">
       <c r="A64" s="10"/>
-      <c r="B64" s="22"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="13"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="83"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="25"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="74"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="20"/>
+      <c r="O64" s="29"/>
+      <c r="P64" s="20"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
       <c r="S64" s="14"/>
     </row>
     <row r="65" spans="1:19">
       <c r="A65" s="10"/>
-      <c r="B65" s="22"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="13"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="83"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="25"/>
-      <c r="N65" s="25"/>
-      <c r="O65" s="32"/>
-      <c r="P65" s="25"/>
-      <c r="Q65" s="32"/>
-      <c r="R65" s="32"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="74"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="30"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="30"/>
+      <c r="R65" s="30"/>
       <c r="S65" s="14"/>
     </row>
     <row r="66" spans="1:19">
       <c r="A66" s="15"/>
-      <c r="B66" s="23"/>
+      <c r="B66" s="22"/>
       <c r="C66" s="16"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="85"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="27"/>
-      <c r="K66" s="27"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="27"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="33"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="76"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="31"/>
+      <c r="R66" s="31"/>
       <c r="S66" s="17"/>
     </row>
     <row r="68" spans="1:19">
@@ -6215,103 +6121,121 @@
       <c r="L68"/>
     </row>
     <row r="69" spans="1:19">
-      <c r="I69" s="108"/>
-      <c r="J69" s="108"/>
-      <c r="K69" s="108"/>
-      <c r="L69" s="108"/>
+      <c r="I69" s="98"/>
+      <c r="J69" s="98"/>
+      <c r="K69" s="98"/>
+      <c r="L69" s="98"/>
     </row>
     <row r="70" spans="1:19">
-      <c r="I70" s="108"/>
-      <c r="J70" s="108"/>
-      <c r="K70" s="108"/>
-      <c r="L70" s="108"/>
+      <c r="I70" s="98"/>
+      <c r="J70" s="98"/>
+      <c r="K70" s="98"/>
+      <c r="L70" s="98"/>
     </row>
     <row r="71" spans="1:19">
-      <c r="K71" s="141"/>
+      <c r="K71" s="130"/>
     </row>
     <row r="72" spans="1:19">
-      <c r="K72" s="141"/>
+      <c r="K72" s="130"/>
     </row>
     <row r="75" spans="1:19">
-      <c r="I75" s="141"/>
-      <c r="J75" s="141"/>
-      <c r="K75" s="141"/>
-      <c r="L75" s="141"/>
+      <c r="I75" s="130"/>
+      <c r="J75" s="130"/>
+      <c r="K75" s="130"/>
+      <c r="L75" s="130"/>
     </row>
     <row r="77" spans="1:19">
-      <c r="I77" s="141"/>
-      <c r="J77" s="141"/>
-      <c r="K77" s="141"/>
-      <c r="L77" s="141"/>
+      <c r="I77" s="130"/>
+      <c r="J77" s="130"/>
+      <c r="K77" s="130"/>
+      <c r="L77" s="130"/>
     </row>
     <row r="79" spans="1:19">
-      <c r="I79" s="141"/>
-      <c r="J79" s="141"/>
-      <c r="K79" s="141"/>
-      <c r="L79" s="141"/>
+      <c r="I79" s="130"/>
+      <c r="J79" s="130"/>
+      <c r="K79" s="130"/>
+      <c r="L79" s="130"/>
     </row>
     <row r="85" spans="9:12">
-      <c r="I85" s="102"/>
-      <c r="J85" s="102"/>
-      <c r="K85" s="102"/>
-      <c r="L85" s="102"/>
+      <c r="I85" s="92"/>
+      <c r="J85" s="92"/>
+      <c r="K85" s="92"/>
+      <c r="L85" s="92"/>
     </row>
     <row r="86" spans="9:12">
-      <c r="I86" s="102"/>
-      <c r="J86" s="102"/>
-      <c r="K86" s="102"/>
-      <c r="L86" s="102"/>
+      <c r="I86" s="92"/>
+      <c r="J86" s="92"/>
+      <c r="K86" s="92"/>
+      <c r="L86" s="92"/>
     </row>
     <row r="87" spans="9:12">
-      <c r="I87" s="102"/>
-      <c r="J87" s="102"/>
-      <c r="K87" s="102"/>
-      <c r="L87" s="102"/>
+      <c r="I87" s="92"/>
+      <c r="J87" s="92"/>
+      <c r="K87" s="92"/>
+      <c r="L87" s="92"/>
     </row>
     <row r="88" spans="9:12">
-      <c r="I88" s="102"/>
-      <c r="J88" s="102"/>
-      <c r="K88" s="102"/>
-      <c r="L88" s="102"/>
+      <c r="I88" s="92"/>
+      <c r="J88" s="92"/>
+      <c r="K88" s="92"/>
+      <c r="L88" s="92"/>
     </row>
     <row r="89" spans="9:12">
-      <c r="I89" s="102"/>
-      <c r="J89" s="102"/>
-      <c r="K89" s="102"/>
-      <c r="L89" s="102"/>
+      <c r="I89" s="92"/>
+      <c r="J89" s="92"/>
+      <c r="K89" s="92"/>
+      <c r="L89" s="92"/>
     </row>
     <row r="90" spans="9:12">
-      <c r="I90" s="102"/>
-      <c r="J90" s="102"/>
-      <c r="K90" s="102"/>
-      <c r="L90" s="102"/>
+      <c r="I90" s="92"/>
+      <c r="J90" s="92"/>
+      <c r="K90" s="92"/>
+      <c r="L90" s="92"/>
     </row>
     <row r="91" spans="9:12">
-      <c r="I91" s="102"/>
-      <c r="J91" s="102"/>
-      <c r="K91" s="102"/>
-      <c r="L91" s="102"/>
+      <c r="I91" s="92"/>
+      <c r="J91" s="92"/>
+      <c r="K91" s="92"/>
+      <c r="L91" s="92"/>
     </row>
     <row r="92" spans="9:12">
-      <c r="I92" s="102"/>
-      <c r="J92" s="102"/>
-      <c r="K92" s="102"/>
-      <c r="L92" s="102"/>
+      <c r="I92" s="92"/>
+      <c r="J92" s="92"/>
+      <c r="K92" s="92"/>
+      <c r="L92" s="92"/>
     </row>
     <row r="93" spans="9:12">
-      <c r="I93" s="102"/>
-      <c r="J93" s="102"/>
-      <c r="K93" s="102"/>
-      <c r="L93" s="102"/>
+      <c r="I93" s="92"/>
+      <c r="J93" s="92"/>
+      <c r="K93" s="92"/>
+      <c r="L93" s="92"/>
     </row>
     <row r="94" spans="9:12">
-      <c r="I94" s="102"/>
-      <c r="J94" s="102"/>
-      <c r="K94" s="102"/>
-      <c r="L94" s="102"/>
+      <c r="I94" s="92"/>
+      <c r="J94" s="92"/>
+      <c r="K94" s="92"/>
+      <c r="L94" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
     <mergeCell ref="B31:G31"/>
     <mergeCell ref="S41:S42"/>
     <mergeCell ref="F41:F42"/>
@@ -6328,24 +6252,6 @@
     <mergeCell ref="B34:G34"/>
     <mergeCell ref="B35:G35"/>
     <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -6405,7 +6311,7 @@
   </sheetPr>
   <dimension ref="A1:T61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -6467,42 +6373,27 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="H5" s="28"/>
-      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="128" t="str">
+      <c r="C6" s="118" t="str">
         <f>process!D6&amp;PROPER(C9)&amp;IF(C8="要求電文(C→S)", "Request", "Response")</f>
         <v>SampleLogoutPutResponse</v>
       </c>
-      <c r="D6" s="127"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="H6" s="28"/>
-      <c r="M6" s="28"/>
+      <c r="D6" s="117"/>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="4" t="s">
         <v>80</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="44" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="35"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
+      <c r="D7" s="33"/>
       <c r="Q7"/>
     </row>
     <row r="8" spans="1:18">
@@ -6510,91 +6401,68 @@
         <v>4</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="H8" s="28"/>
-      <c r="M8" s="28"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="4" t="s">
         <v>121</v>
       </c>
       <c r="B9" s="5"/>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="D9" s="91"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="M9" s="28"/>
+      <c r="D9" s="82"/>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="M10" s="28"/>
+      <c r="C10" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="33"/>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="4" t="s">
         <v>90</v>
       </c>
       <c r="B11" s="5"/>
-      <c r="C11" s="50" t="s">
-        <v>184</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="M11" s="28"/>
+      <c r="C11" s="44" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="109" t="s">
         <v>127</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="147" t="s">
+      <c r="B12" s="109"/>
+      <c r="C12" s="151" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="147"/>
-      <c r="E12" s="92" t="s">
+      <c r="D12" s="151"/>
+      <c r="E12" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="92"/>
-      <c r="H12" s="52"/>
-      <c r="M12" s="28"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="119" t="s">
+      <c r="A13" s="109" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="119"/>
-      <c r="C13" s="147"/>
-      <c r="D13" s="147"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="N13" s="92"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="151"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="120" t="s">
+      <c r="A14" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="97"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="87"/>
       <c r="D14" t="s">
         <v>131</v>
       </c>
@@ -6612,109 +6480,107 @@
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="6"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="176" t="s">
         <v>142</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="176"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="176"/>
+      <c r="G16" s="176"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
       <c r="L16"/>
     </row>
     <row r="17" spans="1:20">
-      <c r="A17" s="112" t="s">
+      <c r="A17" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="153" t="s">
+      <c r="B17" s="170" t="s">
         <v>134</v>
       </c>
-      <c r="C17" s="154"/>
-      <c r="D17" s="154"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="154"/>
-      <c r="G17" s="155"/>
-      <c r="H17" s="102"/>
+      <c r="C17" s="171"/>
+      <c r="D17" s="171"/>
+      <c r="E17" s="171"/>
+      <c r="F17" s="171"/>
+      <c r="G17" s="172"/>
+      <c r="H17" s="92"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
       <c r="L17"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
-      <c r="Q17" s="102"/>
-      <c r="S17" s="108"/>
-      <c r="T17" s="108"/>
+      <c r="N17" s="92"/>
+      <c r="O17" s="92"/>
+      <c r="P17" s="92"/>
+      <c r="Q17" s="92"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
     </row>
     <row r="18" spans="1:20">
-      <c r="A18" s="113"/>
-      <c r="B18" s="167"/>
-      <c r="C18" s="167"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="109"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="159"/>
+      <c r="E18" s="159"/>
+      <c r="F18" s="159"/>
+      <c r="G18" s="159"/>
+      <c r="H18" s="99"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
       <c r="L18"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="109"/>
-      <c r="P18" s="109"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
       <c r="R18"/>
       <c r="S18"/>
       <c r="T18"/>
     </row>
     <row r="19" spans="1:20">
-      <c r="A19" s="114"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="109"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="160"/>
+      <c r="C19" s="160"/>
+      <c r="D19" s="160"/>
+      <c r="E19" s="160"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="99"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="N19" s="109"/>
-      <c r="O19" s="109"/>
-      <c r="P19" s="109"/>
+      <c r="N19" s="99"/>
+      <c r="O19" s="99"/>
+      <c r="P19" s="99"/>
       <c r="R19"/>
       <c r="S19"/>
       <c r="T19"/>
     </row>
     <row r="20" spans="1:20">
-      <c r="A20" s="115"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="169"/>
-      <c r="G20" s="169"/>
-      <c r="H20" s="109"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="161"/>
+      <c r="D20" s="161"/>
+      <c r="E20" s="161"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="161"/>
+      <c r="H20" s="99"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="109"/>
-      <c r="P20" s="109"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="99"/>
+      <c r="P20" s="99"/>
       <c r="R20"/>
       <c r="S20"/>
       <c r="T20"/>
@@ -6725,102 +6591,102 @@
       <c r="J21"/>
       <c r="K21"/>
       <c r="L21"/>
-      <c r="M21" s="109"/>
+      <c r="M21" s="99"/>
     </row>
     <row r="22" spans="1:20">
-      <c r="A22" s="156" t="s">
+      <c r="A22" s="173" t="s">
         <v>143</v>
       </c>
-      <c r="B22" s="157"/>
-      <c r="C22" s="157"/>
-      <c r="D22" s="157"/>
-      <c r="E22" s="157"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="158"/>
+      <c r="B22" s="174"/>
+      <c r="C22" s="174"/>
+      <c r="D22" s="174"/>
+      <c r="E22" s="174"/>
+      <c r="F22" s="174"/>
+      <c r="G22" s="175"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
       <c r="L22"/>
-      <c r="M22" s="109"/>
+      <c r="M22" s="99"/>
     </row>
     <row r="23" spans="1:20">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="176" t="s">
+      <c r="B23" s="165" t="s">
         <v>135</v>
       </c>
-      <c r="C23" s="176"/>
-      <c r="D23" s="176"/>
-      <c r="E23" s="176"/>
-      <c r="F23" s="176"/>
-      <c r="G23" s="176"/>
-      <c r="H23" s="102"/>
-      <c r="M23" s="109"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="102"/>
-      <c r="Q23" s="102"/>
-      <c r="S23" s="108"/>
-      <c r="T23" s="108"/>
+      <c r="C23" s="165"/>
+      <c r="D23" s="165"/>
+      <c r="E23" s="165"/>
+      <c r="F23" s="165"/>
+      <c r="G23" s="165"/>
+      <c r="H23" s="92"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
     </row>
     <row r="24" spans="1:20">
-      <c r="A24" s="113"/>
-      <c r="B24" s="177"/>
-      <c r="C24" s="177"/>
-      <c r="D24" s="177"/>
-      <c r="E24" s="177"/>
-      <c r="F24" s="177"/>
-      <c r="G24" s="177"/>
-      <c r="H24" s="109"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="102"/>
-      <c r="N24" s="109"/>
-      <c r="O24" s="109"/>
-      <c r="P24" s="109"/>
+      <c r="A24" s="103"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="92"/>
+      <c r="L24" s="92"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="99"/>
+      <c r="P24" s="99"/>
       <c r="R24"/>
       <c r="S24"/>
       <c r="T24"/>
     </row>
     <row r="25" spans="1:20">
-      <c r="A25" s="114"/>
-      <c r="B25" s="178"/>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="109"/>
-      <c r="I25" s="102"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="102"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="109"/>
-      <c r="P25" s="109"/>
+      <c r="A25" s="104"/>
+      <c r="B25" s="147"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="99"/>
+      <c r="P25" s="99"/>
       <c r="R25"/>
       <c r="S25"/>
       <c r="T25"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="A26" s="115"/>
-      <c r="B26" s="179"/>
-      <c r="C26" s="179"/>
-      <c r="D26" s="179"/>
-      <c r="E26" s="179"/>
-      <c r="F26" s="179"/>
-      <c r="G26" s="179"/>
-      <c r="H26" s="109"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="109"/>
-      <c r="P26" s="109"/>
+      <c r="A26" s="105"/>
+      <c r="B26" s="149"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="92"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="99"/>
+      <c r="P26" s="99"/>
       <c r="R26"/>
       <c r="S26"/>
       <c r="T26"/>
@@ -6838,7 +6704,7 @@
       <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27" s="109"/>
+      <c r="M27" s="99"/>
       <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
@@ -6846,100 +6712,100 @@
       <c r="R27"/>
     </row>
     <row r="28" spans="1:20">
-      <c r="A28" s="156" t="s">
+      <c r="A28" s="173" t="s">
         <v>144</v>
       </c>
-      <c r="B28" s="157"/>
-      <c r="C28" s="157"/>
-      <c r="D28" s="157"/>
-      <c r="E28" s="157"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="158"/>
-      <c r="M28" s="109"/>
+      <c r="B28" s="174"/>
+      <c r="C28" s="174"/>
+      <c r="D28" s="174"/>
+      <c r="E28" s="174"/>
+      <c r="F28" s="174"/>
+      <c r="G28" s="175"/>
+      <c r="M28" s="99"/>
     </row>
     <row r="29" spans="1:20">
-      <c r="A29" s="112" t="s">
+      <c r="A29" s="102" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="176" t="s">
+      <c r="B29" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="176"/>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="102"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="S29" s="108"/>
-      <c r="T29" s="108"/>
+      <c r="C29" s="165"/>
+      <c r="D29" s="165"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="92"/>
+      <c r="I29" s="92"/>
+      <c r="J29" s="92"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
+      <c r="P29" s="92"/>
+      <c r="Q29" s="92"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="A30" s="113"/>
-      <c r="B30" s="167"/>
-      <c r="C30" s="167"/>
-      <c r="D30" s="167"/>
-      <c r="E30" s="167"/>
-      <c r="F30" s="167"/>
-      <c r="G30" s="207"/>
-      <c r="H30" s="109"/>
-      <c r="I30" s="109"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
+      <c r="A30" s="103"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="159"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="99"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="99"/>
+      <c r="L30" s="99"/>
       <c r="M30"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="109"/>
-      <c r="P30" s="109"/>
+      <c r="N30" s="99"/>
+      <c r="O30" s="99"/>
+      <c r="P30" s="99"/>
       <c r="R30"/>
       <c r="S30"/>
       <c r="T30"/>
     </row>
     <row r="31" spans="1:20">
-      <c r="A31" s="114"/>
-      <c r="B31" s="168"/>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="208"/>
-      <c r="H31" s="109"/>
-      <c r="I31" s="109"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="109"/>
-      <c r="L31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="109"/>
-      <c r="P31" s="109"/>
+      <c r="A31" s="104"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="160"/>
+      <c r="D31" s="160"/>
+      <c r="E31" s="160"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="194"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="99"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="99"/>
+      <c r="L31" s="99"/>
+      <c r="N31" s="99"/>
+      <c r="O31" s="99"/>
+      <c r="P31" s="99"/>
       <c r="R31"/>
       <c r="S31"/>
       <c r="T31"/>
     </row>
     <row r="32" spans="1:20">
-      <c r="A32" s="115"/>
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="194"/>
-      <c r="H32" s="109"/>
-      <c r="I32" s="109"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="109"/>
-      <c r="L32" s="109"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="109"/>
-      <c r="P32" s="109"/>
+      <c r="A32" s="105"/>
+      <c r="B32" s="161"/>
+      <c r="C32" s="161"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
+      <c r="F32" s="161"/>
+      <c r="G32" s="195"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="99"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="99"/>
+      <c r="L32" s="99"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99"/>
+      <c r="P32" s="99"/>
       <c r="R32"/>
       <c r="S32"/>
       <c r="T32"/>
@@ -6957,7 +6823,7 @@
       <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
-      <c r="M33" s="109"/>
+      <c r="M33" s="99"/>
       <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
@@ -6966,627 +6832,643 @@
     </row>
     <row r="34" spans="1:19">
       <c r="A34" s="6"/>
-      <c r="M34" s="109"/>
+      <c r="M34" s="99"/>
     </row>
     <row r="35" spans="1:19">
-      <c r="A35" s="54" t="s">
+      <c r="A35" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="136"/>
-      <c r="J35" s="136"/>
-      <c r="K35" s="136"/>
-      <c r="L35" s="136"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="56"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
+      <c r="G35" s="46"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="125"/>
+      <c r="J35" s="125"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="46"/>
+      <c r="O35" s="46"/>
+      <c r="P35" s="46"/>
+      <c r="Q35" s="46"/>
+      <c r="R35" s="46"/>
+      <c r="S35" s="47"/>
     </row>
     <row r="36" spans="1:19" ht="15">
-      <c r="A36" s="198" t="s">
+      <c r="A36" s="185" t="s">
         <v>94</v>
       </c>
-      <c r="B36" s="198" t="s">
+      <c r="B36" s="185" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="58" t="s">
+      <c r="C36" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D36" s="198" t="s">
+      <c r="D36" s="185" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="198" t="s">
+      <c r="E36" s="185" t="s">
         <v>126</v>
       </c>
-      <c r="F36" s="198" t="s">
+      <c r="F36" s="185" t="s">
         <v>129</v>
       </c>
-      <c r="G36" s="198" t="s">
+      <c r="G36" s="185" t="s">
         <v>107</v>
       </c>
-      <c r="H36" s="198" t="s">
+      <c r="H36" s="185" t="s">
         <v>92</v>
       </c>
-      <c r="I36" s="211" t="s">
+      <c r="I36" s="202" t="s">
         <v>166</v>
       </c>
-      <c r="J36" s="213" t="s">
+      <c r="J36" s="204" t="s">
         <v>167</v>
       </c>
-      <c r="K36" s="213" t="s">
+      <c r="K36" s="204" t="s">
         <v>168</v>
       </c>
-      <c r="L36" s="205" t="s">
+      <c r="L36" s="191" t="s">
         <v>169</v>
       </c>
-      <c r="M36" s="195" t="s">
+      <c r="M36" s="183" t="s">
         <v>145</v>
       </c>
-      <c r="N36" s="209" t="s">
+      <c r="N36" s="201" t="s">
         <v>98</v>
       </c>
-      <c r="O36" s="210"/>
-      <c r="P36" s="215" t="s">
+      <c r="O36" s="199"/>
+      <c r="P36" s="198" t="s">
         <v>99</v>
       </c>
-      <c r="Q36" s="210"/>
-      <c r="R36" s="57" t="s">
+      <c r="Q36" s="199"/>
+      <c r="R36" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="S36" s="198" t="s">
+      <c r="S36" s="185" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:19" ht="15">
-      <c r="A37" s="216"/>
-      <c r="B37" s="216"/>
-      <c r="C37" s="59" t="s">
+      <c r="A37" s="200"/>
+      <c r="B37" s="200"/>
+      <c r="C37" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="216"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="216"/>
-      <c r="H37" s="216"/>
-      <c r="I37" s="212"/>
-      <c r="J37" s="214"/>
-      <c r="K37" s="214"/>
-      <c r="L37" s="206"/>
-      <c r="M37" s="201"/>
-      <c r="N37" s="60" t="s">
+      <c r="D37" s="200"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="205"/>
+      <c r="K37" s="205"/>
+      <c r="L37" s="192"/>
+      <c r="M37" s="187"/>
+      <c r="N37" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="O37" s="60" t="s">
+      <c r="O37" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="P37" s="60" t="s">
+      <c r="P37" s="51" t="s">
         <v>104</v>
       </c>
-      <c r="Q37" s="60" t="s">
+      <c r="Q37" s="51" t="s">
         <v>105</v>
       </c>
-      <c r="R37" s="61" t="s">
+      <c r="R37" s="52" t="s">
         <v>106</v>
       </c>
-      <c r="S37" s="216"/>
+      <c r="S37" s="200"/>
     </row>
     <row r="38" spans="1:19">
-      <c r="A38" s="62">
+      <c r="A38" s="53">
         <v>1</v>
       </c>
-      <c r="B38" s="20"/>
+      <c r="B38" s="19"/>
       <c r="C38" s="8"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="137"/>
-      <c r="K38" s="138"/>
-      <c r="L38" s="137"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65"/>
-      <c r="R38" s="65"/>
-      <c r="S38" s="66"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="77"/>
+      <c r="H38" s="56"/>
+      <c r="I38" s="126"/>
+      <c r="J38" s="126"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="126"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="57"/>
     </row>
     <row r="39" spans="1:19">
-      <c r="A39" s="62"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="64"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="86"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="139"/>
-      <c r="K39" s="140"/>
-      <c r="L39" s="139"/>
-      <c r="M39" s="25"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="66"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="77"/>
+      <c r="H39" s="56"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
+      <c r="K39" s="129"/>
+      <c r="L39" s="128"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="57"/>
     </row>
     <row r="40" spans="1:19">
-      <c r="A40" s="62"/>
-      <c r="B40" s="67"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
-      <c r="K40" s="139"/>
-      <c r="L40" s="139"/>
-      <c r="M40" s="25"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
-      <c r="P40" s="63"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="63"/>
-      <c r="S40" s="69"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="59"/>
+      <c r="E40" s="59"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="78"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
+      <c r="K40" s="128"/>
+      <c r="L40" s="128"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="60"/>
     </row>
     <row r="41" spans="1:19">
-      <c r="A41" s="62"/>
-      <c r="B41" s="70"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="72"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="90"/>
-      <c r="H41" s="72"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
-      <c r="K41" s="139"/>
-      <c r="L41" s="139"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
-      <c r="P41" s="63"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63"/>
-      <c r="S41" s="73"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="61"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="63"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
+      <c r="K41" s="128"/>
+      <c r="L41" s="128"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="64"/>
     </row>
     <row r="42" spans="1:19">
-      <c r="A42" s="62"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="72"/>
-      <c r="I42" s="140"/>
-      <c r="J42" s="140"/>
-      <c r="K42" s="140"/>
-      <c r="L42" s="140"/>
-      <c r="M42" s="25"/>
-      <c r="N42" s="65"/>
-      <c r="O42" s="65"/>
-      <c r="P42" s="65"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="73"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="61"/>
+      <c r="C42" s="62"/>
+      <c r="D42" s="63"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="63"/>
+      <c r="I42" s="129"/>
+      <c r="J42" s="129"/>
+      <c r="K42" s="129"/>
+      <c r="L42" s="129"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="56"/>
+      <c r="O42" s="56"/>
+      <c r="P42" s="56"/>
+      <c r="Q42" s="56"/>
+      <c r="R42" s="56"/>
+      <c r="S42" s="64"/>
     </row>
     <row r="43" spans="1:19">
-      <c r="A43" s="62"/>
-      <c r="B43" s="70"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="139"/>
-      <c r="J43" s="139"/>
-      <c r="K43" s="139"/>
-      <c r="L43" s="139"/>
-      <c r="M43" s="25"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
-      <c r="P43" s="63"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="63"/>
-      <c r="S43" s="73"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="63"/>
+      <c r="F43" s="63"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="63"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="128"/>
+      <c r="K43" s="128"/>
+      <c r="L43" s="128"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
+      <c r="Q43" s="54"/>
+      <c r="R43" s="54"/>
+      <c r="S43" s="64"/>
     </row>
     <row r="44" spans="1:19">
-      <c r="A44" s="62"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="71"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="140"/>
-      <c r="K44" s="140"/>
-      <c r="L44" s="140"/>
-      <c r="M44" s="25"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
-      <c r="P44" s="63"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="63"/>
-      <c r="S44" s="73"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="63"/>
+      <c r="F44" s="63"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="63"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
+      <c r="L44" s="129"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
+      <c r="Q44" s="54"/>
+      <c r="R44" s="54"/>
+      <c r="S44" s="64"/>
     </row>
     <row r="45" spans="1:19">
-      <c r="A45" s="62"/>
-      <c r="B45" s="70"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="72"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="72"/>
-      <c r="G45" s="88"/>
-      <c r="H45" s="72"/>
-      <c r="I45" s="139"/>
-      <c r="J45" s="139"/>
-      <c r="K45" s="139"/>
-      <c r="L45" s="139"/>
-      <c r="M45" s="25"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
-      <c r="P45" s="63"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="63"/>
-      <c r="S45" s="73"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="62"/>
+      <c r="D45" s="63"/>
+      <c r="E45" s="63"/>
+      <c r="F45" s="63"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="63"/>
+      <c r="I45" s="128"/>
+      <c r="J45" s="128"/>
+      <c r="K45" s="128"/>
+      <c r="L45" s="128"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
+      <c r="Q45" s="54"/>
+      <c r="R45" s="54"/>
+      <c r="S45" s="64"/>
     </row>
     <row r="46" spans="1:19">
-      <c r="A46" s="62"/>
-      <c r="B46" s="70"/>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="72"/>
-      <c r="G46" s="88"/>
-      <c r="H46" s="72"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="140"/>
-      <c r="K46" s="140"/>
-      <c r="L46" s="140"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="65"/>
-      <c r="O46" s="65"/>
-      <c r="P46" s="65"/>
-      <c r="Q46" s="65"/>
-      <c r="R46" s="65"/>
-      <c r="S46" s="73"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="63"/>
+      <c r="F46" s="63"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="63"/>
+      <c r="I46" s="129"/>
+      <c r="J46" s="129"/>
+      <c r="K46" s="129"/>
+      <c r="L46" s="129"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="64"/>
     </row>
     <row r="47" spans="1:19">
-      <c r="A47" s="62"/>
-      <c r="B47" s="70"/>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72"/>
-      <c r="E47" s="72"/>
-      <c r="F47" s="72"/>
-      <c r="G47" s="88"/>
-      <c r="H47" s="72"/>
-      <c r="I47" s="139"/>
-      <c r="J47" s="139"/>
-      <c r="K47" s="139"/>
-      <c r="L47" s="139"/>
-      <c r="M47" s="25"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
-      <c r="P47" s="63"/>
-      <c r="Q47" s="63"/>
-      <c r="R47" s="63"/>
-      <c r="S47" s="73"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="61"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="63"/>
+      <c r="E47" s="63"/>
+      <c r="F47" s="63"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="128"/>
+      <c r="J47" s="128"/>
+      <c r="K47" s="128"/>
+      <c r="L47" s="128"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="64"/>
     </row>
     <row r="48" spans="1:19">
-      <c r="A48" s="62"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="71"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="72"/>
-      <c r="F48" s="72"/>
-      <c r="G48" s="88"/>
-      <c r="H48" s="72"/>
-      <c r="I48" s="139"/>
-      <c r="J48" s="139"/>
-      <c r="K48" s="139"/>
-      <c r="L48" s="139"/>
-      <c r="M48" s="25"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="63"/>
-      <c r="P48" s="63"/>
-      <c r="Q48" s="63"/>
-      <c r="R48" s="63"/>
-      <c r="S48" s="73"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="61"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="63"/>
+      <c r="F48" s="63"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="63"/>
+      <c r="I48" s="128"/>
+      <c r="J48" s="128"/>
+      <c r="K48" s="128"/>
+      <c r="L48" s="128"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
+      <c r="P48" s="54"/>
+      <c r="Q48" s="54"/>
+      <c r="R48" s="54"/>
+      <c r="S48" s="64"/>
     </row>
     <row r="49" spans="1:19">
-      <c r="A49" s="62"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="72"/>
-      <c r="E49" s="72"/>
-      <c r="F49" s="72"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="72"/>
-      <c r="I49" s="139"/>
-      <c r="J49" s="139"/>
-      <c r="K49" s="139"/>
-      <c r="L49" s="139"/>
-      <c r="M49" s="25"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
-      <c r="P49" s="63"/>
-      <c r="Q49" s="63"/>
-      <c r="R49" s="63"/>
-      <c r="S49" s="73"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="61"/>
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="63"/>
+      <c r="G49" s="79"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="128"/>
+      <c r="J49" s="128"/>
+      <c r="K49" s="128"/>
+      <c r="L49" s="128"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
+      <c r="P49" s="54"/>
+      <c r="Q49" s="54"/>
+      <c r="R49" s="54"/>
+      <c r="S49" s="64"/>
     </row>
     <row r="50" spans="1:19">
-      <c r="A50" s="62"/>
-      <c r="B50" s="70"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72"/>
-      <c r="E50" s="72"/>
-      <c r="F50" s="72"/>
-      <c r="G50" s="88"/>
-      <c r="H50" s="72"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="139"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="25"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
-      <c r="P50" s="63"/>
-      <c r="Q50" s="63"/>
-      <c r="R50" s="63"/>
-      <c r="S50" s="73"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="128"/>
+      <c r="L50" s="128"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
+      <c r="P50" s="54"/>
+      <c r="Q50" s="54"/>
+      <c r="R50" s="54"/>
+      <c r="S50" s="64"/>
     </row>
     <row r="51" spans="1:19">
-      <c r="A51" s="62"/>
-      <c r="B51" s="70"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72"/>
-      <c r="E51" s="72"/>
-      <c r="F51" s="72"/>
-      <c r="G51" s="88"/>
-      <c r="H51" s="72"/>
-      <c r="I51" s="139"/>
-      <c r="J51" s="139"/>
-      <c r="K51" s="139"/>
-      <c r="L51" s="139"/>
-      <c r="M51" s="25"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
-      <c r="P51" s="63"/>
-      <c r="Q51" s="63"/>
-      <c r="R51" s="63"/>
-      <c r="S51" s="73"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="63"/>
+      <c r="E51" s="63"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="79"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="128"/>
+      <c r="J51" s="128"/>
+      <c r="K51" s="128"/>
+      <c r="L51" s="128"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
+      <c r="P51" s="54"/>
+      <c r="Q51" s="54"/>
+      <c r="R51" s="54"/>
+      <c r="S51" s="64"/>
     </row>
     <row r="52" spans="1:19">
-      <c r="A52" s="62"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="72"/>
-      <c r="E52" s="72"/>
-      <c r="F52" s="72"/>
-      <c r="G52" s="88"/>
-      <c r="H52" s="72"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="25"/>
-      <c r="N52" s="65"/>
-      <c r="O52" s="65"/>
-      <c r="P52" s="65"/>
-      <c r="Q52" s="65"/>
-      <c r="R52" s="65"/>
-      <c r="S52" s="73"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="63"/>
+      <c r="G52" s="79"/>
+      <c r="H52" s="63"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="25"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="56"/>
+      <c r="O52" s="56"/>
+      <c r="P52" s="56"/>
+      <c r="Q52" s="56"/>
+      <c r="R52" s="56"/>
+      <c r="S52" s="64"/>
     </row>
     <row r="53" spans="1:19">
-      <c r="A53" s="62"/>
-      <c r="B53" s="70"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="72"/>
-      <c r="E53" s="72"/>
-      <c r="F53" s="72"/>
-      <c r="G53" s="88"/>
-      <c r="H53" s="72"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="25"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="63"/>
-      <c r="Q53" s="63"/>
-      <c r="R53" s="63"/>
-      <c r="S53" s="73"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="61"/>
+      <c r="C53" s="62"/>
+      <c r="D53" s="63"/>
+      <c r="E53" s="63"/>
+      <c r="F53" s="63"/>
+      <c r="G53" s="79"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
+      <c r="P53" s="54"/>
+      <c r="Q53" s="54"/>
+      <c r="R53" s="54"/>
+      <c r="S53" s="64"/>
     </row>
     <row r="54" spans="1:19">
-      <c r="A54" s="62"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="71"/>
-      <c r="D54" s="72"/>
-      <c r="E54" s="72"/>
-      <c r="F54" s="72"/>
-      <c r="G54" s="88"/>
-      <c r="H54" s="72"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="25"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
-      <c r="P54" s="63"/>
-      <c r="Q54" s="63"/>
-      <c r="R54" s="63"/>
-      <c r="S54" s="73"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="63"/>
+      <c r="F54" s="63"/>
+      <c r="G54" s="79"/>
+      <c r="H54" s="63"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
+      <c r="P54" s="54"/>
+      <c r="Q54" s="54"/>
+      <c r="R54" s="54"/>
+      <c r="S54" s="64"/>
     </row>
     <row r="55" spans="1:19">
-      <c r="A55" s="62"/>
-      <c r="B55" s="70"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="72"/>
-      <c r="E55" s="72"/>
-      <c r="F55" s="72"/>
-      <c r="G55" s="88"/>
-      <c r="H55" s="72"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="25"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="63"/>
-      <c r="Q55" s="63"/>
-      <c r="R55" s="63"/>
-      <c r="S55" s="73"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="61"/>
+      <c r="C55" s="62"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
+      <c r="F55" s="63"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="25"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
+      <c r="P55" s="54"/>
+      <c r="Q55" s="54"/>
+      <c r="R55" s="54"/>
+      <c r="S55" s="64"/>
     </row>
     <row r="56" spans="1:19">
-      <c r="A56" s="62"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="72"/>
-      <c r="E56" s="72"/>
-      <c r="F56" s="72"/>
-      <c r="G56" s="88"/>
-      <c r="H56" s="72"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="25"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
-      <c r="P56" s="63"/>
-      <c r="Q56" s="63"/>
-      <c r="R56" s="63"/>
-      <c r="S56" s="73"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="63"/>
+      <c r="F56" s="63"/>
+      <c r="G56" s="79"/>
+      <c r="H56" s="63"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="24"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
+      <c r="P56" s="54"/>
+      <c r="Q56" s="54"/>
+      <c r="R56" s="54"/>
+      <c r="S56" s="64"/>
     </row>
     <row r="57" spans="1:19">
-      <c r="A57" s="62"/>
-      <c r="B57" s="70"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="88"/>
-      <c r="H57" s="72"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="25"/>
-      <c r="N57" s="65"/>
-      <c r="O57" s="65"/>
-      <c r="P57" s="65"/>
-      <c r="Q57" s="65"/>
-      <c r="R57" s="65"/>
-      <c r="S57" s="73"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="61"/>
+      <c r="C57" s="62"/>
+      <c r="D57" s="63"/>
+      <c r="E57" s="63"/>
+      <c r="F57" s="63"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="63"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="24"/>
+      <c r="N57" s="56"/>
+      <c r="O57" s="56"/>
+      <c r="P57" s="56"/>
+      <c r="Q57" s="56"/>
+      <c r="R57" s="56"/>
+      <c r="S57" s="64"/>
     </row>
     <row r="58" spans="1:19">
-      <c r="A58" s="62"/>
-      <c r="B58" s="70"/>
-      <c r="C58" s="71"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="88"/>
-      <c r="H58" s="72"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="25"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
-      <c r="P58" s="63"/>
-      <c r="Q58" s="63"/>
-      <c r="R58" s="63"/>
-      <c r="S58" s="73"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="63"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="63"/>
+      <c r="G58" s="79"/>
+      <c r="H58" s="63"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
+      <c r="P58" s="54"/>
+      <c r="Q58" s="54"/>
+      <c r="R58" s="54"/>
+      <c r="S58" s="64"/>
     </row>
     <row r="59" spans="1:19">
-      <c r="A59" s="62"/>
-      <c r="B59" s="70"/>
-      <c r="C59" s="71"/>
-      <c r="D59" s="72"/>
-      <c r="E59" s="72"/>
-      <c r="F59" s="72"/>
-      <c r="G59" s="88"/>
-      <c r="H59" s="72"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="25"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
-      <c r="P59" s="63"/>
-      <c r="Q59" s="63"/>
-      <c r="R59" s="63"/>
-      <c r="S59" s="73"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+      <c r="G59" s="79"/>
+      <c r="H59" s="63"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="64"/>
     </row>
     <row r="60" spans="1:19">
-      <c r="A60" s="62"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="71"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="88"/>
-      <c r="H60" s="72"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="25"/>
-      <c r="N60" s="65"/>
-      <c r="O60" s="65"/>
-      <c r="P60" s="65"/>
-      <c r="Q60" s="65"/>
-      <c r="R60" s="65"/>
-      <c r="S60" s="73"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="63"/>
+      <c r="F60" s="63"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="63"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="56"/>
+      <c r="O60" s="56"/>
+      <c r="P60" s="56"/>
+      <c r="Q60" s="56"/>
+      <c r="R60" s="56"/>
+      <c r="S60" s="64"/>
     </row>
     <row r="61" spans="1:19">
-      <c r="A61" s="74"/>
-      <c r="B61" s="75"/>
-      <c r="C61" s="76"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="77"/>
-      <c r="I61" s="27"/>
-      <c r="J61" s="27"/>
-      <c r="K61" s="27"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="27"/>
-      <c r="N61" s="78"/>
-      <c r="O61" s="78"/>
-      <c r="P61" s="78"/>
-      <c r="Q61" s="78"/>
-      <c r="R61" s="78"/>
-      <c r="S61" s="79"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="68"/>
+      <c r="F61" s="68"/>
+      <c r="G61" s="80"/>
+      <c r="H61" s="68"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="69"/>
+      <c r="O61" s="69"/>
+      <c r="P61" s="69"/>
+      <c r="Q61" s="69"/>
+      <c r="R61" s="69"/>
+      <c r="S61" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="B26:G26"/>
     <mergeCell ref="P36:Q36"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="S36:S37"/>
@@ -7603,22 +7485,6 @@
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="H36:H37"/>
     <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
@@ -7670,9 +7536,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="40" customWidth="1"/>
-    <col min="2" max="2" width="4.5" style="40" customWidth="1"/>
-    <col min="3" max="16384" width="8.83203125" style="40"/>
+    <col min="1" max="1" width="3.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="35" customWidth="1"/>
+    <col min="3" max="16384" width="8.83203125" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19">
@@ -7776,7 +7642,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="35" t="s">
         <v>36</v>
       </c>
     </row>
@@ -7786,19 +7652,19 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="35" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="1"/>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="35" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="1"/>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="35" t="s">
         <v>67</v>
       </c>
     </row>
@@ -7809,7 +7675,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1"/>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="35" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7827,7 +7693,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1"/>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="35" t="s">
         <v>43</v>
       </c>
       <c r="C26" s="1"/>
@@ -7840,22 +7706,22 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1"/>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="35" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="35" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="35" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="35" t="s">
         <v>48</v>
       </c>
     </row>
@@ -7865,122 +7731,122 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="35" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="35" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="35" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="35" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="35" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="35" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="35" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="35" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="35" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="35" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="35" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="35" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="35" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="35" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="35" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="35" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="35" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="35" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="40" t="s">
+      <c r="A54" s="35" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="35" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="35" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="35" t="s">
         <v>88</v>
       </c>
     </row>
@@ -8014,8 +7880,8 @@
       <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
       <c r="E1" s="1" t="s">
         <v>111</v>
       </c>
@@ -8024,37 +7890,37 @@
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="E4" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="38" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="39" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="40" t="s">
         <v>115</v>
       </c>
       <c r="D5" s="8"/>
@@ -8066,30 +7932,30 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="41" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="E6" s="64"/>
-      <c r="F6" s="64"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" s="15"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="11" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="11" t="s">
         <v>118</v>
       </c>
     </row>
